--- a/xilinx相关/电源/FPGA器件供电细节.xlsx
+++ b/xilinx相关/电源/FPGA器件供电细节.xlsx
@@ -4,39 +4,161 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="XC7S100-2FGGA484I" sheetId="1" r:id="rId1"/>
+    <sheet name="XC7S50-2FGGA484I" sheetId="1" r:id="rId1"/>
+    <sheet name="XC7A200T-2FFG1156I" sheetId="2" r:id="rId2"/>
+    <sheet name="XC7Z020-2CLG400I" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>供电类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压(V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度(V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率(W)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCAUX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±0.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCBRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.140~3.465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCBATT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00~1.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VREFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±0.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片内部电路电源（核心工作电压），跟VCCBRAM供电电平一致时，需要连接到同一个电轨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助电源，用于内部模拟电路的供电（包括功能选择管脚、JTAG），对于PSRR要求较高（纹波）。尽量使用LDO。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK的IO电源，各标准电平的电源选择需要参考DS162（Recommended Operating Conditions for User I/Os Using Single-Ended Standards）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部block RAM的供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于配置比特流的加密，不使用时连接到GND或者VCCAUX。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC电路的电源，参考地为GNDADC。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC电路的参考电压。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMGTAVCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMGTAVTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTP收发器的模拟接口（terminal）电路供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTP收发器的模拟电源。供电滤波电路参考UG482。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -44,6 +166,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,9 +221,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,40 +545,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
+    <col min="7" max="7" width="139.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="139.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xilinx相关/电源/FPGA器件供电细节.xlsx
+++ b/xilinx相关/电源/FPGA器件供电细节.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>供电类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,110 @@
   </si>
   <si>
     <t>GTP收发器的模拟电源。供电滤波电路参考UG482。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率(W)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCPINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCPAUX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCPLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_DDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.14~1.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_MIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.710~3.465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑内部电路电源（核心工作电压），跟VCCBRAM连接到同一个电轨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑辅助电源，用于内部模拟电路的供电（包括功能选择管脚、JTAG），对于PSRR要求较高（纹波）。尽量使用LDO。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑内部block RAM的供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑BANK的IO电源，包括1.2V/1.35V/1.5V/1.8V/2.5V/3.3V，精度均为±5%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑用于配置比特流的加密，不使用时连接到GND或者VCCAUX。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑XADC电路的电源，参考地为GNDADC。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑XADC电路的参考电压。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑GTP收发器的模拟电源。供电滤波电路参考UG482。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑GTP收发器的模拟接口（terminal）电路供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器内部电路电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器辅助电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器PLL供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器DDR的IO供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器MIO BANK的供电，包括VCCO_MIO0和VCCO_MIO1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器DDR和MIO的IO输入电压，上限为VCCO_DDR+0.2/VCC_MIO+0.2。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,16 +652,14 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="4" customWidth="1"/>
-    <col min="3" max="4" width="11.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="139.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -703,17 +805,16 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="6" customWidth="1"/>
+    <col min="3" max="4" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="139.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -731,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -903,15 +1004,283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xilinx相关/电源/FPGA器件供电细节.xlsx
+++ b/xilinx相关/电源/FPGA器件供电细节.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="XC7S50-2FGGA484I" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>供电类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功率(W)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电流(A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VCCO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.140~3.465</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VCCBATT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,14 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XADC电路的电源，参考地为GNDADC。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XADC电路的参考电压。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VMGTAVCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,18 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTP收发器的模拟接口（terminal）电路供电。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTP收发器的模拟电源。供电滤波电路参考UG482。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功率(W)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VCCPINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,14 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑XADC电路的电源，参考地为GNDADC。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑XADC电路的参考电压。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逻辑GTP收发器的模拟电源。供电滤波电路参考UG482。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +223,62 @@
   </si>
   <si>
     <t>处理器DDR和MIO的IO输入电压，上限为VCCO_DDR+0.2/VCC_MIO+0.2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_1V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC电路的电源，参考地为GNDADC。不使用时接到VCCAUX。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC电路的参考电压。不使用时连接到GNDADC。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR3 2133MHz 32bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VREFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC电路的参考电压地。不使用时连接到GND。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNDADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC不使用时连接到GND。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_1V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,21 +665,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="139.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="139.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,19 +690,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -694,103 +707,154 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.276</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>1.8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -802,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,12 +877,11 @@
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="139.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="139.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,19 +892,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -849,152 +909,198 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.6310000000000002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="6">
         <v>1.8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" t="s">
+      <c r="B15" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" t="s">
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
+      <c r="E15" s="4">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,11 +1121,11 @@
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.375" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,19 +1136,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1050,232 +1153,297 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="6">
         <v>1.8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.286</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" t="s">
+      <c r="E18" s="4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/xilinx相关/电源/FPGA器件供电细节.xlsx
+++ b/xilinx相关/电源/FPGA器件供电细节.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="XC7S50-2FGGA484I" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>供电类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,151 +134,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>±0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.14~1.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_MIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.710~3.465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑内部电路电源（核心工作电压），跟VCCBRAM连接到同一个电轨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑辅助电源，用于内部模拟电路的供电（包括功能选择管脚、JTAG），对于PSRR要求较高（纹波）。尽量使用LDO。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑内部block RAM的供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑BANK的IO电源，包括1.2V/1.35V/1.5V/1.8V/2.5V/3.3V，精度均为±5%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑用于配置比特流的加密，不使用时连接到GND或者VCCAUX。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑GTP收发器的模拟电源。供电滤波电路参考UG482。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑GTP收发器的模拟接口（terminal）电路供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器内部电路电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器辅助电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器PLL供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器DDR的IO供电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器MIO BANK的供电，包括VCCO_MIO0和VCCO_MIO1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_1V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC电路的电源，参考地为GNDADC。不使用时接到VCCAUX。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC电路的参考电压。不使用时连接到GNDADC。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR3 2133MHz 32bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VREFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC电路的参考电压地。不使用时连接到GND。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNDADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XADC不使用时连接到GND。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCCO_1V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMGTAVCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VCCPINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>±0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VCCPAUX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>±5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VCCPLL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VCCO_DDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.14~1.89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCCO_MIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.710~3.465</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VPIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑内部电路电源（核心工作电压），跟VCCBRAM连接到同一个电轨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑辅助电源，用于内部模拟电路的供电（包括功能选择管脚、JTAG），对于PSRR要求较高（纹波）。尽量使用LDO。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑内部block RAM的供电。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑BANK的IO电源，包括1.2V/1.35V/1.5V/1.8V/2.5V/3.3V，精度均为±5%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑用于配置比特流的加密，不使用时连接到GND或者VCCAUX。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑GTP收发器的模拟电源。供电滤波电路参考UG482。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑GTP收发器的模拟接口（terminal）电路供电。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器内部电路电源。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器辅助电源。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器PLL供电。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器DDR的IO供电。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器MIO BANK的供电，包括VCCO_MIO0和VCCO_MIO1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器DDR和MIO的IO输入电压，上限为VCCO_DDR+0.2/VCC_MIO+0.2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCCO_3V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCCO_1V5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XADC电路的电源，参考地为GNDADC。不使用时接到VCCAUX。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XADC电路的参考电压。不使用时连接到GNDADC。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDR3 2133MHz 32bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VREFN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XADC电路的参考电压地。不使用时连接到GND。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GNDADC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XADC不使用时连接到GND。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCCO_3V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCCO_1V5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,7 +757,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4">
         <v>0.15</v>
@@ -772,13 +768,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4">
         <v>0.23599999999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -789,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -809,10 +805,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -829,32 +825,32 @@
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +865,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -963,7 +959,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4">
         <v>0.30299999999999999</v>
@@ -974,7 +970,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4">
         <v>0.24</v>
@@ -988,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -1011,10 +1007,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1031,43 +1027,43 @@
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -1110,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,7 +1158,7 @@
         <v>3.3410000000000002</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1182,7 +1178,7 @@
         <v>0.41399999999999998</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1202,23 +1198,23 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4">
         <v>0.14399999999999999</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4">
         <v>0.22900000000000001</v>
@@ -1232,10 +1228,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1255,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1275,38 +1271,38 @@
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1323,10 +1319,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1343,35 +1339,35 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E17" s="4">
         <v>1.286</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B18" s="6">
         <v>1.8</v>
@@ -1386,12 +1382,12 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B19" s="6">
         <v>1.8</v>
@@ -1406,44 +1402,35 @@
         <v>1.4E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" s="4">
         <v>0.28100000000000003</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4">
         <v>0.05</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
